--- a/src/test/resources/TestDriver/IFRS9_Stage3/ReferenceData/RefData_Ifrs9.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/ReferenceData/RefData_Ifrs9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Stage3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\ReferenceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E47F0-61F9-4A20-B0E4-1CA3D4BF8635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D879E90-8C9C-49A9-B96C-7E0E29A5B5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>INTEREST_ACCRUAL</t>
-  </si>
-  <si>
-    <t>IMPAIRMENT_ALLOWANCE</t>
   </si>
   <si>
     <t>LOANAMOUNT</t>
@@ -587,7 +584,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -685,7 +682,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -749,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -769,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -789,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -809,7 +806,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -829,7 +826,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -858,8 +855,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -882,7 +879,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +887,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -898,7 +895,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,7 +903,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,15 +911,15 @@
         <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +992,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>28</v>
@@ -1003,7 +1000,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
@@ -1176,7 +1173,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,12 +1187,12 @@
         <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>33</v>
@@ -1204,12 +1201,12 @@
         <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>33</v>
@@ -1218,7 +1215,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1235,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1262,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,13 +1320,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4">
         <v>5000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4">
         <v>102</v>
@@ -1337,13 +1334,13 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4">
         <v>6000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4">
         <v>102</v>
